--- a/biology/Zoologie/Crenatula_picta/Crenatula_picta.xlsx
+++ b/biology/Zoologie/Crenatula_picta/Crenatula_picta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crenatula picta est une espèce de mollusques bivalves de l'ordre des Ostreida et de la famille des Pteriidae, des Isognomonidae ou des Malleidae, selon les classifications.
-C'est la seule espèce connue dans son genre, selon la base de données World Register of Marine Species                               (20 octobre 2019)[3]. Cependant, d'autres sites comme BioLib                    (20 octobre 2019)[4] donnent d'autres espèces comme valides.
+C'est la seule espèce connue dans son genre, selon la base de données World Register of Marine Species                               (20 octobre 2019). Cependant, d'autres sites comme BioLib                    (20 octobre 2019) donnent d'autres espèces comme valides.
 Elle est trouvée dans l'Océan Indien, de Madagascar à la Mer Rouge.
 </t>
         </is>
